--- a/trunk/OpenWaters/OpenWaters/App_Docs/Samp_ImportTemplate.xlsx
+++ b/trunk/OpenWaters/OpenWaters/App_Docs/Samp_ImportTemplate.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougtimms\Dropbox\open-environment\products\OpenWaters\svn\open-waters\trunk\OpenWaters\OpenWaters\App_Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample_ImportTemplate" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample_ImportTemplate-03282015" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Activity Start Date</t>
   </si>
@@ -22,48 +27,401 @@
     <t>Activity Start Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes: </t>
-  </si>
-  <si>
-    <t>You can add, remove, and rearrange columns as needed, but you must configure "Import Logic" in Open Waters that maps the columns you use with those in your spreadsheet</t>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Activity ID</t>
+  </si>
+  <si>
+    <t>Station ID</t>
+  </si>
+  <si>
+    <t>Data Logger Line</t>
+  </si>
+  <si>
+    <t>Result Detection Condition</t>
+  </si>
+  <si>
+    <t>Activity Time Zone</t>
+  </si>
+  <si>
+    <t>Activity End Date</t>
+  </si>
+  <si>
+    <t>Activity End Time</t>
+  </si>
+  <si>
+    <t>Activity Media</t>
+  </si>
+  <si>
+    <t>Activity Submedia</t>
+  </si>
+  <si>
+    <t>Activity Type Code</t>
+  </si>
+  <si>
+    <t>Relative Depth</t>
+  </si>
+  <si>
+    <t>Depth Measure</t>
+  </si>
+  <si>
+    <t>Depth Measure Unit</t>
+  </si>
+  <si>
+    <t>Top Depth Measure</t>
+  </si>
+  <si>
+    <t>Top Depth Measure Unit</t>
+  </si>
+  <si>
+    <t>Bottom Depth Measure</t>
+  </si>
+  <si>
+    <t>Bottom Depth Measure Unit</t>
+  </si>
+  <si>
+    <t>Depth Ref Point</t>
+  </si>
+  <si>
+    <t>Activity Comment</t>
+  </si>
+  <si>
+    <t>ACTIVITY DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Bio Assemblage Sampled</t>
+  </si>
+  <si>
+    <t>Note: columns may be added, removed, or rearranged any way you'd like, but please do not edit column header text. (Import logic uses column names to identify data.)</t>
+  </si>
+  <si>
+    <t>Bio Duration</t>
+  </si>
+  <si>
+    <t>Bio Duration Unit</t>
+  </si>
+  <si>
+    <t>Sampling Component</t>
+  </si>
+  <si>
+    <t>Sampling Component Place</t>
+  </si>
+  <si>
+    <t>Reach Length</t>
+  </si>
+  <si>
+    <t>Reach Length Unit</t>
+  </si>
+  <si>
+    <t>Reach Width</t>
+  </si>
+  <si>
+    <t>Reach Width Unit</t>
+  </si>
+  <si>
+    <t>Pass Count</t>
+  </si>
+  <si>
+    <t>Net Type</t>
+  </si>
+  <si>
+    <t>Net Surface Area</t>
+  </si>
+  <si>
+    <t>Surface Area Unit</t>
+  </si>
+  <si>
+    <t>Net Mesh Size</t>
+  </si>
+  <si>
+    <t>Mesh Size Unit</t>
+  </si>
+  <si>
+    <t>Boat Speed</t>
+  </si>
+  <si>
+    <t>Boat Speed Unit</t>
+  </si>
+  <si>
+    <t>Current Speed</t>
+  </si>
+  <si>
+    <t>Current Speed Unit</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL ACTIVITY DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Toxicity Test Type</t>
+  </si>
+  <si>
+    <t>Collection Method ID</t>
+  </si>
+  <si>
+    <t>Collection Method Context</t>
+  </si>
+  <si>
+    <t>Collection Equipment</t>
+  </si>
+  <si>
+    <t>Collection Equipment Comment</t>
+  </si>
+  <si>
+    <t>Sample Prep ID</t>
+  </si>
+  <si>
+    <t>Sample Prep Context</t>
+  </si>
+  <si>
+    <t>SAMPLE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Container Type</t>
+  </si>
+  <si>
+    <t>Container Color</t>
+  </si>
+  <si>
+    <t>Chem Preservative Used</t>
+  </si>
+  <si>
+    <t>Thermal Preservative Used</t>
+  </si>
+  <si>
+    <t>Transport Storage Description</t>
+  </si>
+  <si>
+    <t>Method Speciation</t>
+  </si>
+  <si>
+    <t>Sample Fraction</t>
+  </si>
+  <si>
+    <t>Measure Qualifier</t>
+  </si>
+  <si>
+    <t>Result Status</t>
+  </si>
+  <si>
+    <t>Statistical Base Code</t>
+  </si>
+  <si>
+    <t>Result Value Type</t>
+  </si>
+  <si>
+    <t>Weight Basis</t>
+  </si>
+  <si>
+    <t>Time Basis</t>
+  </si>
+  <si>
+    <t>Temperature Basis</t>
+  </si>
+  <si>
+    <t>Particle Size Basis</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Bias</t>
+  </si>
+  <si>
+    <t>Confidence Interval</t>
+  </si>
+  <si>
+    <t>Confidence Upper</t>
+  </si>
+  <si>
+    <t>Confidence Lower</t>
+  </si>
+  <si>
+    <t>Result Comments</t>
+  </si>
+  <si>
+    <t>Result Depth</t>
+  </si>
+  <si>
+    <t>Result Depth Unit</t>
+  </si>
+  <si>
+    <t>Result Depth Ref Point</t>
+  </si>
+  <si>
+    <t>RESULT DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Bio Intent Name</t>
+  </si>
+  <si>
+    <t>Bio Individual ID</t>
+  </si>
+  <si>
+    <t>Taxonomic Name</t>
+  </si>
+  <si>
+    <t>Unidentified Species</t>
+  </si>
+  <si>
+    <t>Tissue Anatomy</t>
+  </si>
+  <si>
+    <t>Group Summary Total</t>
+  </si>
+  <si>
+    <t>Group Summary Total Unit</t>
+  </si>
+  <si>
+    <t>Cell Form</t>
+  </si>
+  <si>
+    <t>Cell Shape</t>
+  </si>
+  <si>
+    <t>Habit Name</t>
+  </si>
+  <si>
+    <t>Voltinism Name</t>
+  </si>
+  <si>
+    <t>Pollution Tolerance</t>
+  </si>
+  <si>
+    <t>Pollution Tolerance Scale</t>
+  </si>
+  <si>
+    <t>Trophic Level</t>
+  </si>
+  <si>
+    <t>Functional Feeding Group</t>
+  </si>
+  <si>
+    <t>Functional Feeding Group 3</t>
+  </si>
+  <si>
+    <t>Functional Feeding Group 2</t>
+  </si>
+  <si>
+    <t>Analytical Method ID</t>
+  </si>
+  <si>
+    <t>Analytical Method Context</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL RESULT DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Lab Name</t>
+  </si>
+  <si>
+    <t>Analysis Start Date</t>
+  </si>
+  <si>
+    <t>Analysis End Date</t>
+  </si>
+  <si>
+    <t>Method Detection Level</t>
+  </si>
+  <si>
+    <t>Laboratory Reporting Level</t>
+  </si>
+  <si>
+    <t>Practical Quantitation Limit</t>
+  </si>
+  <si>
+    <t>Detection Threshold Limit Unit</t>
+  </si>
+  <si>
+    <t>Upper Quantitation Limit</t>
+  </si>
+  <si>
+    <t>Lower Quantitation Limit</t>
+  </si>
+  <si>
+    <t>Preparation Start Date</t>
+  </si>
+  <si>
+    <t>Preparation End Date</t>
+  </si>
+  <si>
+    <t>Dilution Factor</t>
+  </si>
+  <si>
+    <t>LAB SAMPLE PREP</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">When importing, </t>
+      <t>When copy/pasting into Open Waters,</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>do not include header row.</t>
+      <t xml:space="preserve"> you MUST include the </t>
     </r>
-  </si>
-  <si>
-    <t>Characteristic</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Activity ID</t>
-  </si>
-  <si>
-    <t>Station ID</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> header row.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lab Sample Prep ID</t>
+  </si>
+  <si>
+    <t>Lab Sample Prep Context</t>
+  </si>
+  <si>
+    <t>Lab Comment Code</t>
+  </si>
+  <si>
+    <t>Frequency Class</t>
+  </si>
+  <si>
+    <t>Frequency Class Unit</t>
+  </si>
+  <si>
+    <t>Frequency Class Upper</t>
+  </si>
+  <si>
+    <t>Frequency Class Lower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,14 +575,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +777,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -542,19 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -647,6 +1037,69 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -700,22 +1153,79 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -763,9 +1273,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -814,7 +1332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,7 +1367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,74 +1576,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="30" style="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15" style="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.7109375" style="12" customWidth="1"/>
+    <col min="50" max="50" width="27.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.140625" style="17" customWidth="1"/>
+    <col min="68" max="69" width="17.42578125" style="17" customWidth="1"/>
+    <col min="70" max="70" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="25.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.85546875" style="17" customWidth="1"/>
+    <col min="92" max="92" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="21.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="21.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="19.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="25.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="25.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="23.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="28.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="20" style="17" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1"/>
+      <c r="F1" s="3"/>
       <c r="G1"/>
+      <c r="H1" s="3"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5"/>
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+    </row>
+    <row r="3" spans="1:112" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+    </row>
+    <row r="4" spans="1:112" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="31"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+      <c r="BF4" s="31"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="31"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="34"/>
+      <c r="CK4" s="34"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="34"/>
+      <c r="CN4" s="34"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="34"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS4" s="19"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="19"/>
+      <c r="CV4" s="19"/>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="19"/>
+      <c r="CY4" s="19"/>
+      <c r="CZ4" s="19"/>
+      <c r="DA4" s="19"/>
+      <c r="DB4" s="19"/>
+      <c r="DC4" s="19"/>
+      <c r="DD4" s="19"/>
+      <c r="DE4" s="19"/>
+      <c r="DF4" s="19"/>
+      <c r="DG4" s="19"/>
+      <c r="DH4" s="20"/>
+    </row>
+    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="BF5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="CG5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="CL5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="CP5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CR5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="CU5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="CV5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="CX5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ5" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="DB5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="DC5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="DE5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="DF5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH5" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="14"/>
+    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="CR4:DH4"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="T4:AM4"/>
+    <mergeCell ref="AN4:AX4"/>
+    <mergeCell ref="AY4:BV4"/>
+    <mergeCell ref="BW4:CQ4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>